--- a/common/src/main/webapp/imports/export-刘丰-17.xlsx
+++ b/common/src/main/webapp/imports/export-刘丰-17.xlsx
@@ -538,10 +538,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -568,12 +568,72 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,17 +647,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -616,24 +685,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -641,7 +702,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,67 +715,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -725,13 +725,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -743,12 +797,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -761,67 +875,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,73 +893,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,10 +919,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -931,17 +948,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,28 +984,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1019,148 +1019,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1529,7 +1529,7 @@
   <dimension ref="A1:AE17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A$1:A$1048576"/>
+      <selection activeCell="C8" sqref="A1:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="30" customHeight="1" zeroHeight="1"/>
@@ -1562,32 +1562,32 @@
     <col min="30" max="30" width="37" style="1" customWidth="1"/>
     <col min="31" max="31" width="100.666666666667" style="3" customWidth="1"/>
     <col min="32" max="16383" width="8.88333333333333" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="0" style="1"/>
+    <col min="16384" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:31">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>1375</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1599,24 +1599,28 @@
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N1" s="2">
         <v>90</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2">
         <v>89605702</v>
       </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
       <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1640,28 +1644,28 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:31">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>1373</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1673,31 +1677,32 @@
       <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="2">
         <v>30</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>29878888</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U2" s="1">
+      <c r="U2" s="2">
         <v>29878888</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -1723,25 +1728,26 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:31">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>1370</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -1753,24 +1759,28 @@
       <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1">
+      <c r="N3" s="2">
         <v>50</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>89697958</v>
       </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
       <c r="X3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1794,25 +1804,26 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:31">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1378</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -1824,24 +1835,28 @@
       <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1">
+      <c r="N4" s="2">
         <v>50</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q4" s="2">
         <v>29865868</v>
       </c>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
       <c r="X4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1865,28 +1880,28 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:31">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1376</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -1898,21 +1913,26 @@
       <c r="K5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="2"/>
+      <c r="O5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>64679505</v>
       </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
       <c r="X5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1936,28 +1956,28 @@
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:31">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1371</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1969,24 +1989,28 @@
       <c r="K6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="1">
+      <c r="N6" s="2">
         <v>65</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>88088811</v>
       </c>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
       <c r="X6" s="1" t="s">
         <v>12</v>
       </c>
@@ -2010,28 +2034,28 @@
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:31">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>1361</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -2043,24 +2067,28 @@
       <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N7" s="2">
         <v>90</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <v>86551933</v>
       </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
       <c r="X7" s="1" t="s">
         <v>12</v>
       </c>
@@ -2084,28 +2112,28 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:31">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1377</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -2117,24 +2145,28 @@
       <c r="K8" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="1">
+      <c r="N8" s="2">
         <v>300</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>66608371</v>
       </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
       <c r="X8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2158,28 +2190,28 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:31">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1360</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -2191,24 +2223,28 @@
       <c r="K9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="1">
+      <c r="N9" s="2">
         <v>90</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <v>15524398290</v>
       </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
       <c r="X9" s="1" t="s">
         <v>12</v>
       </c>
@@ -2232,25 +2268,26 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:31">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>1335</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
         <v>94</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>97</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -2262,27 +2299,30 @@
       <c r="K10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="1">
+      <c r="N10" s="2">
         <v>232</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="Q10" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
       <c r="X10" s="1" t="s">
         <v>12</v>
       </c>
@@ -2306,25 +2346,26 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:31">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>1365</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -2336,24 +2377,28 @@
       <c r="K11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N11" s="2">
         <v>90</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="2">
         <v>31139133</v>
       </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
       <c r="X11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2377,28 +2422,28 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:31">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>1368</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>114</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -2410,24 +2455,28 @@
       <c r="K12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N12" s="2">
         <v>94</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="2">
         <v>88071169</v>
       </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
       <c r="X12" s="1" t="s">
         <v>12</v>
       </c>
@@ -2448,25 +2497,26 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:31">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>1362</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -2478,24 +2528,28 @@
       <c r="K13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N13" s="1">
+      <c r="N13" s="2">
         <v>100</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q13" s="2" t="s">
         <v>124</v>
       </c>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
       <c r="X13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2519,28 +2573,28 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:31">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>1367</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>132</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -2552,24 +2606,28 @@
       <c r="K14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="1">
+      <c r="N14" s="2">
         <v>76</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <v>89697958</v>
       </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
       <c r="X14" s="1" t="s">
         <v>12</v>
       </c>
@@ -2593,28 +2651,28 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:31">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>340</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>138</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>140</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -2626,27 +2684,30 @@
       <c r="K15" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N15" s="2">
         <v>50</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="2">
         <v>89717909</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
       <c r="X15" s="1" t="s">
         <v>12</v>
       </c>
@@ -2670,28 +2731,28 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:31">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>1334</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>153</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -2703,34 +2764,34 @@
       <c r="K16" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N16" s="2">
         <v>25</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <v>18604030681</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="S16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="T16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U16" s="2">
         <v>18602421211</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -2756,28 +2817,28 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:31">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>1326</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>165</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -2789,15 +2850,22 @@
       <c r="K17" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N17" s="2">
         <v>14</v>
       </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
       <c r="X17" s="1" t="s">
         <v>12</v>
       </c>
